--- a/NformTester/NformTester/Keywordscripts/600.40.30.120_UsersandGroupsAccountDisabled.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.30.120_UsersandGroupsAccountDisabled.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1260,7 +1260,7 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -4168,95 +4168,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4277,7 +4193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4563,7 +4479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
